--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>79.74491630444248</v>
+        <v>24.93876863414581</v>
       </c>
       <c r="C2">
-        <v>6.010788741846902</v>
+        <v>1.879764587994149</v>
       </c>
       <c r="D2">
-        <v>28.70487261456467</v>
+        <v>8.976925551897232</v>
       </c>
       <c r="E2">
-        <v>12.89083084615258</v>
+        <v>4.031372316534736</v>
       </c>
       <c r="F2">
-        <v>26.31799176653127</v>
+        <v>8.230472085206936</v>
       </c>
       <c r="G2">
-        <v>44.32998403355089</v>
+        <v>13.86339426512779</v>
       </c>
       <c r="H2">
-        <v>3.800345039770944</v>
+        <v>1.188488621831952</v>
       </c>
       <c r="I2">
-        <v>201.7997293468597</v>
+        <v>63.10918606273859</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>78.83872407371024</v>
+        <v>24.6553735360305</v>
       </c>
       <c r="C3">
-        <v>6.386463038212333</v>
+        <v>1.997249874743783</v>
       </c>
       <c r="D3">
-        <v>32.80556870235962</v>
+        <v>10.25934348788256</v>
       </c>
       <c r="E3">
-        <v>12.47499759305088</v>
+        <v>3.901328048259423</v>
       </c>
       <c r="F3">
-        <v>26.5458531671073</v>
+        <v>8.301731583780155</v>
       </c>
       <c r="G3">
-        <v>49.81410576966029</v>
+        <v>15.5784533494735</v>
       </c>
       <c r="H3">
-        <v>4.023894747992765</v>
+        <v>1.258399717233831</v>
       </c>
       <c r="I3">
-        <v>210.8896070920934</v>
+        <v>65.95187959740373</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>89.12400589252188</v>
+        <v>27.87190789963909</v>
       </c>
       <c r="C4">
-        <v>6.511687803667479</v>
+        <v>2.036411636993661</v>
       </c>
       <c r="D4">
-        <v>35.67605596381608</v>
+        <v>11.15703604307228</v>
       </c>
       <c r="E4">
-        <v>14.55416385855936</v>
+        <v>4.551549389635993</v>
       </c>
       <c r="F4">
-        <v>31.33094257920389</v>
+        <v>9.798181053817778</v>
       </c>
       <c r="G4">
-        <v>37.93184200808994</v>
+        <v>11.8624920000578</v>
       </c>
       <c r="H4">
-        <v>2.235497082218202</v>
+        <v>0.699110954018795</v>
       </c>
       <c r="I4">
-        <v>217.3641951880768</v>
+        <v>67.9766889772354</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>96.19230529223373</v>
+        <v>30.08238966493839</v>
       </c>
       <c r="C5">
-        <v>4.132417260019746</v>
+        <v>1.292338154245977</v>
       </c>
       <c r="D5">
-        <v>36.49619518137508</v>
+        <v>11.41351963026934</v>
       </c>
       <c r="E5">
-        <v>15.38583036476276</v>
+        <v>4.811637926186622</v>
       </c>
       <c r="F5">
-        <v>27.22943736883538</v>
+        <v>8.515510079499816</v>
       </c>
       <c r="G5">
-        <v>25.59256810184381</v>
+        <v>8.003609060279958</v>
       </c>
       <c r="H5">
-        <v>1.564847957552742</v>
+        <v>0.4893776678131564</v>
       </c>
       <c r="I5">
-        <v>206.5936015266233</v>
+        <v>64.60838218323326</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>116.8081785413937</v>
+        <v>36.52962814706128</v>
       </c>
       <c r="C6">
-        <v>6.136013507302046</v>
+        <v>1.918926350244027</v>
       </c>
       <c r="D6">
-        <v>25.8343853531082</v>
+        <v>8.07923299670751</v>
       </c>
       <c r="E6">
-        <v>28.69249446401702</v>
+        <v>8.97305451099667</v>
       </c>
       <c r="F6">
-        <v>19.48214974925042</v>
+        <v>6.092687128010329</v>
       </c>
       <c r="G6">
-        <v>14.16731448494926</v>
+        <v>4.430569301226404</v>
       </c>
       <c r="H6">
-        <v>4.694543872658226</v>
+        <v>1.468133003439469</v>
       </c>
       <c r="I6">
-        <v>215.8150799726788</v>
+        <v>67.49223143768569</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>116.6269400952471</v>
+        <v>36.47294912743823</v>
       </c>
       <c r="C7">
-        <v>3.381068667288883</v>
+        <v>1.057367580746709</v>
       </c>
       <c r="D7">
-        <v>18.45313239507728</v>
+        <v>5.770880711933936</v>
       </c>
       <c r="E7">
-        <v>31.6033272357289</v>
+        <v>9.883364388923869</v>
       </c>
       <c r="F7">
-        <v>11.16520862822539</v>
+        <v>3.491715430087791</v>
       </c>
       <c r="G7">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="H7">
-        <v>2.682596498661843</v>
+        <v>0.838933144822554</v>
       </c>
       <c r="I7">
-        <v>190.7674256903661</v>
+        <v>59.65903423938523</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>81.46668154283388</v>
+        <v>25.47721932056487</v>
       </c>
       <c r="C8">
-        <v>3.506293432744027</v>
+        <v>1.096529342996587</v>
       </c>
       <c r="D8">
-        <v>15.99271474240032</v>
+        <v>5.001429950342744</v>
       </c>
       <c r="E8">
-        <v>20.37582940198311</v>
+        <v>6.372169145490392</v>
       </c>
       <c r="F8">
-        <v>8.544802521601063</v>
+        <v>2.672231196495759</v>
       </c>
       <c r="G8">
-        <v>8.226182604164087</v>
+        <v>2.572588626518558</v>
       </c>
       <c r="H8">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I8">
-        <v>138.3360539539483</v>
+        <v>43.26207867781078</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>66.51450973575092</v>
+        <v>20.80120020166252</v>
       </c>
       <c r="C9">
-        <v>3.130619136378595</v>
+        <v>0.9790440562469523</v>
       </c>
       <c r="D9">
-        <v>11.48194904582587</v>
+        <v>3.590770220758894</v>
       </c>
       <c r="E9">
-        <v>30.35582747642382</v>
+        <v>9.493231584097931</v>
       </c>
       <c r="F9">
-        <v>4.899020112384608</v>
+        <v>1.532079219324235</v>
       </c>
       <c r="G9">
-        <v>4.570101446757825</v>
+        <v>1.429215903621422</v>
       </c>
       <c r="H9">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="I9">
-        <v>121.6226760781871</v>
+        <v>38.03527447191759</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>49.20623812876398</v>
+        <v>15.38835382766042</v>
       </c>
       <c r="C10">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="D10">
-        <v>9.021531393148898</v>
+        <v>2.821319459167702</v>
       </c>
       <c r="E10">
-        <v>19.95999614888142</v>
+        <v>6.242124877215074</v>
       </c>
       <c r="F10">
-        <v>4.443297311232553</v>
+        <v>1.389560222177795</v>
       </c>
       <c r="G10">
-        <v>4.570101446757825</v>
+        <v>1.429215903621422</v>
       </c>
       <c r="H10">
-        <v>0.8941988328872811</v>
+        <v>0.2796443816075181</v>
       </c>
       <c r="I10">
-        <v>90.34940903986454</v>
+        <v>28.25513039194774</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>37.74290641000036</v>
+        <v>11.80340583650197</v>
       </c>
       <c r="C11">
-        <v>3.63151819819917</v>
+        <v>1.135691105246465</v>
       </c>
       <c r="D11">
-        <v>9.021531393148898</v>
+        <v>2.821319459167702</v>
       </c>
       <c r="E11">
-        <v>9.148331568237312</v>
+        <v>2.86097390205691</v>
       </c>
       <c r="F11">
-        <v>4.557228011520565</v>
+        <v>1.425189971464405</v>
       </c>
       <c r="G11">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="H11">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="I11">
-        <v>71.62731687590849</v>
+        <v>22.40013741607522</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>23.24383071828354</v>
+        <v>7.269084266657271</v>
       </c>
       <c r="C12">
-        <v>3.381068667288883</v>
+        <v>1.057367580746709</v>
       </c>
       <c r="D12">
-        <v>2.050348043897476</v>
+        <v>0.6412089679926597</v>
       </c>
       <c r="E12">
-        <v>3.326666024813569</v>
+        <v>1.040354146202513</v>
       </c>
       <c r="F12">
-        <v>2.73433680691234</v>
+        <v>0.8551139828786426</v>
       </c>
       <c r="G12">
-        <v>7.312162314812519</v>
+        <v>2.286745445794274</v>
       </c>
       <c r="I12">
-        <v>42.04841257600832</v>
+        <v>13.14987439027207</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>14.49907569171682</v>
+        <v>4.534321569844692</v>
       </c>
       <c r="C13">
-        <v>4.132417260019746</v>
+        <v>1.292338154245977</v>
       </c>
       <c r="D13">
-        <v>1.640278435117981</v>
+        <v>0.5129671743941278</v>
       </c>
       <c r="E13">
-        <v>1.663333012406784</v>
+        <v>0.5201770731012563</v>
       </c>
       <c r="F13">
-        <v>3.645782409216454</v>
+        <v>1.140151977171524</v>
       </c>
       <c r="G13">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="H13">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I13">
-        <v>32.65958868683634</v>
+        <v>10.21369089959159</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>9.107231918859632</v>
+        <v>2.848120736058697</v>
       </c>
       <c r="C14">
-        <v>3.381068667288883</v>
+        <v>1.057367580746709</v>
       </c>
       <c r="D14">
-        <v>1.640278435117981</v>
+        <v>0.5129671743941278</v>
       </c>
       <c r="E14">
-        <v>1.247499759305088</v>
+        <v>0.3901328048259421</v>
       </c>
       <c r="F14">
-        <v>3.076128907776382</v>
+        <v>0.9620032307384729</v>
       </c>
       <c r="G14">
-        <v>14.62432462962504</v>
+        <v>4.573490891588548</v>
       </c>
       <c r="H14">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I14">
-        <v>33.30008202619482</v>
+        <v>10.41399351375438</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>6.751132118955645</v>
+        <v>2.111293480958935</v>
       </c>
       <c r="C15">
-        <v>2.128821012737445</v>
+        <v>0.6657499582479277</v>
       </c>
       <c r="D15">
-        <v>1.230208826338486</v>
+        <v>0.3847253807955957</v>
       </c>
       <c r="F15">
-        <v>2.050752605184255</v>
+        <v>0.6413354871589821</v>
       </c>
       <c r="G15">
-        <v>11.42525361689456</v>
+        <v>3.573039759053553</v>
       </c>
       <c r="H15">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I15">
-        <v>24.03326759655403</v>
+        <v>7.515966257018752</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>7.113609011248566</v>
+        <v>2.224651520205053</v>
       </c>
       <c r="C16">
-        <v>1.127022889096294</v>
+        <v>0.3524558602489029</v>
       </c>
       <c r="D16">
-        <v>4.100696087794953</v>
+        <v>1.282417935985319</v>
       </c>
       <c r="E16">
-        <v>2.079166265508481</v>
+        <v>0.6502213413765704</v>
       </c>
       <c r="F16">
-        <v>2.392544706048298</v>
+        <v>0.7482247350188121</v>
       </c>
       <c r="G16">
-        <v>13.25329419559769</v>
+        <v>4.144726120502122</v>
       </c>
       <c r="H16">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I16">
-        <v>30.2898828635161</v>
+        <v>9.472608608738659</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>16.26615054164481</v>
+        <v>5.086942011169514</v>
       </c>
       <c r="C17">
-        <v>1.127022889096294</v>
+        <v>0.3524558602489029</v>
       </c>
       <c r="D17">
-        <v>4.100696087794953</v>
+        <v>1.282417935985319</v>
       </c>
       <c r="E17">
-        <v>1.247499759305088</v>
+        <v>0.3901328048259421</v>
       </c>
       <c r="F17">
-        <v>4.329366610944539</v>
+        <v>1.353930472891185</v>
       </c>
       <c r="G17">
-        <v>17.82339564235552</v>
+        <v>5.573942024123544</v>
       </c>
       <c r="H17">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I17">
-        <v>45.34123094758484</v>
+        <v>14.17964330004817</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>34.70716243704715</v>
+        <v>10.85403225781573</v>
       </c>
       <c r="C18">
-        <v>1.878371481827158</v>
+        <v>0.5874264337481715</v>
       </c>
       <c r="D18">
-        <v>8.611461784369403</v>
+        <v>2.693077665569171</v>
       </c>
       <c r="E18">
-        <v>14.13833060545767</v>
+        <v>4.421505121360679</v>
       </c>
       <c r="F18">
-        <v>10.02590162534525</v>
+        <v>3.135417937221689</v>
       </c>
       <c r="G18">
-        <v>23.30751737846491</v>
+        <v>7.289001108469245</v>
       </c>
       <c r="H18">
-        <v>1.341298249330922</v>
+        <v>0.419466572411277</v>
       </c>
       <c r="I18">
-        <v>94.01004356184245</v>
+        <v>29.39992709659596</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>60.53364101291772</v>
+        <v>18.93079255410158</v>
       </c>
       <c r="C19">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="D19">
-        <v>22.55382848287225</v>
+        <v>7.053298647919255</v>
       </c>
       <c r="E19">
-        <v>38.67249253845776</v>
+        <v>12.09411694960421</v>
       </c>
       <c r="F19">
-        <v>18.4567734466583</v>
+        <v>5.772019384430838</v>
       </c>
       <c r="G19">
-        <v>32.90473041665635</v>
+        <v>10.29035450607423</v>
       </c>
       <c r="H19">
-        <v>2.235497082218202</v>
+        <v>0.699110954018795</v>
       </c>
       <c r="I19">
-        <v>177.6110087579732</v>
+        <v>55.54460471664671</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>103.0793662457992</v>
+        <v>32.2361924106146</v>
       </c>
       <c r="C20">
-        <v>2.504495309102876</v>
+        <v>0.7832352449975621</v>
       </c>
       <c r="D20">
-        <v>27.88473339700568</v>
+        <v>8.72044196470017</v>
       </c>
       <c r="E20">
-        <v>37.84082603225434</v>
+        <v>11.83402841305358</v>
       </c>
       <c r="F20">
-        <v>20.96324885299461</v>
+        <v>6.555873868736262</v>
       </c>
       <c r="G20">
-        <v>45.24400432290248</v>
+        <v>14.14923744585207</v>
       </c>
       <c r="H20">
-        <v>4.470994164436404</v>
+        <v>1.39822190803759</v>
       </c>
       <c r="I20">
-        <v>241.9876683244956</v>
+        <v>75.67723125599183</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>108.6524484648029</v>
+        <v>33.97907226402366</v>
       </c>
       <c r="C21">
-        <v>3.756742963654315</v>
+        <v>1.174852867496343</v>
       </c>
       <c r="D21">
-        <v>22.14375887409274</v>
+        <v>6.925056854320723</v>
       </c>
       <c r="E21">
-        <v>26.19749494540685</v>
+        <v>8.192788901344789</v>
       </c>
       <c r="F21">
-        <v>18.11498134579425</v>
+        <v>5.665130136571007</v>
       </c>
       <c r="G21">
-        <v>37.01782171873838</v>
+        <v>11.57664881933351</v>
       </c>
       <c r="H21">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="I21">
-        <v>219.0129442275949</v>
+        <v>68.49230517871635</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>87.40224065413048</v>
+        <v>27.33345721322004</v>
       </c>
       <c r="C22">
-        <v>5.384664914571183</v>
+        <v>1.683955776744758</v>
       </c>
       <c r="D22">
-        <v>38.54654322527257</v>
+        <v>12.054728598262</v>
       </c>
       <c r="E22">
-        <v>20.37582940198311</v>
+        <v>6.372169145490392</v>
       </c>
       <c r="F22">
-        <v>30.41949697689978</v>
+        <v>9.5131430595249</v>
       </c>
       <c r="G22">
-        <v>65.35245068863688</v>
+        <v>20.43778742178632</v>
       </c>
       <c r="H22">
-        <v>3.800345039770944</v>
+        <v>1.188488621831952</v>
       </c>
       <c r="I22">
-        <v>251.281570901265</v>
+        <v>78.58372983686036</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>68.6440614779718</v>
+        <v>21.46717868223347</v>
       </c>
       <c r="C23">
-        <v>5.384664914571183</v>
+        <v>1.683955776744758</v>
       </c>
       <c r="D23">
-        <v>31.16529026724164</v>
+        <v>9.746376313488424</v>
       </c>
       <c r="E23">
-        <v>12.47499759305088</v>
+        <v>3.901328048259423</v>
       </c>
       <c r="F23">
-        <v>29.96377417574773</v>
+        <v>9.370624062378457</v>
       </c>
       <c r="G23">
-        <v>63.52441010993378</v>
+        <v>19.86610106033775</v>
       </c>
       <c r="H23">
-        <v>2.235497082218202</v>
+        <v>0.699110954018795</v>
       </c>
       <c r="I23">
-        <v>213.3926956207352</v>
+        <v>66.73467489746108</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>77.97784145451452</v>
+        <v>24.38614819282099</v>
       </c>
       <c r="C24">
-        <v>5.509889680026329</v>
+        <v>1.723117538994636</v>
       </c>
       <c r="D24">
-        <v>32.39549909358013</v>
+        <v>10.13110169428402</v>
       </c>
       <c r="E24">
-        <v>19.12832964267803</v>
+        <v>5.982036340664449</v>
       </c>
       <c r="F24">
-        <v>31.10308117862786</v>
+        <v>9.72692155524456</v>
       </c>
       <c r="G24">
-        <v>56.21224779512124</v>
+        <v>17.57935561454348</v>
       </c>
       <c r="H24">
-        <v>4.694543872658226</v>
+        <v>1.468133003439469</v>
       </c>
       <c r="I24">
-        <v>227.0214327172063</v>
+        <v>70.99681393999161</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>74.80616864695149</v>
+        <v>23.39426534941746</v>
       </c>
       <c r="C25">
-        <v>5.134215383660896</v>
+        <v>1.605632252245002</v>
       </c>
       <c r="D25">
-        <v>23.37396770043123</v>
+        <v>7.309782235116317</v>
       </c>
       <c r="E25">
-        <v>18.29666313647462</v>
+        <v>5.721947804113821</v>
       </c>
       <c r="F25">
-        <v>20.96324885299461</v>
+        <v>6.555873868736262</v>
       </c>
       <c r="G25">
-        <v>49.35709562498452</v>
+        <v>15.43553175911135</v>
       </c>
       <c r="H25">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="I25">
-        <v>194.837505552381</v>
+        <v>60.93187750896464</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>75.2592647623176</v>
+        <v>23.5359628984751</v>
       </c>
       <c r="C26">
-        <v>4.508091556385176</v>
+        <v>1.409823440995612</v>
       </c>
       <c r="D26">
-        <v>22.14375887409274</v>
+        <v>6.925056854320723</v>
       </c>
       <c r="E26">
-        <v>12.89083084615258</v>
+        <v>4.031372316534736</v>
       </c>
       <c r="F26">
-        <v>26.65978386739531</v>
+        <v>8.337361333066767</v>
       </c>
       <c r="G26">
-        <v>51.64214634836342</v>
+        <v>16.15013971092206</v>
       </c>
       <c r="H26">
-        <v>4.694543872658226</v>
+        <v>1.468133003439469</v>
       </c>
       <c r="I26">
-        <v>197.798420127365</v>
+        <v>61.85784955775447</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>81.1495142620776</v>
+        <v>25.37803103622451</v>
       </c>
       <c r="C27">
-        <v>4.883765852750609</v>
+        <v>1.527308727745246</v>
       </c>
       <c r="D27">
-        <v>35.2659863550366</v>
+        <v>11.02879424947374</v>
       </c>
       <c r="E27">
-        <v>18.71249638957633</v>
+        <v>5.851992072389135</v>
       </c>
       <c r="F27">
-        <v>25.7483382650912</v>
+        <v>8.052323338773885</v>
       </c>
       <c r="G27">
-        <v>40.21689273146885</v>
+        <v>12.5770999518685</v>
       </c>
       <c r="H27">
-        <v>3.353245623327304</v>
+        <v>1.048666431028193</v>
       </c>
       <c r="I27">
-        <v>209.3302394793285</v>
+        <v>65.46421580750322</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>83.36968522737172</v>
+        <v>26.07234902660696</v>
       </c>
       <c r="C28">
-        <v>4.257642025474889</v>
+        <v>1.331499916495855</v>
       </c>
       <c r="D28">
-        <v>36.49619518137508</v>
+        <v>11.41351963026934</v>
       </c>
       <c r="E28">
-        <v>14.96999711166106</v>
+        <v>4.681593657911308</v>
       </c>
       <c r="F28">
-        <v>25.17868476365113</v>
+        <v>7.874174592340836</v>
       </c>
       <c r="G28">
-        <v>47.52905504628138</v>
+        <v>14.86384539766278</v>
       </c>
       <c r="H28">
-        <v>3.353245623327304</v>
+        <v>1.048666431028193</v>
       </c>
       <c r="I28">
-        <v>215.1545049791425</v>
+        <v>67.28564865231527</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>96.23761490377042</v>
+        <v>30.09655941984413</v>
       </c>
       <c r="C29">
-        <v>4.132417260019746</v>
+        <v>1.292338154245977</v>
       </c>
       <c r="D29">
-        <v>27.47466378822618</v>
+        <v>8.592200171101636</v>
       </c>
       <c r="E29">
-        <v>20.37582940198311</v>
+        <v>6.372169145490392</v>
       </c>
       <c r="F29">
-        <v>23.58365495961893</v>
+        <v>7.375358102328293</v>
       </c>
       <c r="G29">
-        <v>32.44772027198056</v>
+        <v>10.14743291571209</v>
       </c>
       <c r="H29">
-        <v>4.247444456214585</v>
+        <v>1.328310812635711</v>
       </c>
       <c r="I29">
-        <v>208.4993450418135</v>
+        <v>65.20436872135824</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>115.0411036914656</v>
+        <v>35.97700770573648</v>
       </c>
       <c r="C30">
-        <v>3.506293432744027</v>
+        <v>1.096529342996587</v>
       </c>
       <c r="D30">
-        <v>28.29480300578518</v>
+        <v>8.848683758298701</v>
       </c>
       <c r="E30">
-        <v>28.69249446401702</v>
+        <v>8.97305451099667</v>
       </c>
       <c r="F30">
-        <v>20.39359535155453</v>
+        <v>6.377725122303209</v>
       </c>
       <c r="G30">
-        <v>19.65143622105864</v>
+        <v>6.14562838557211</v>
       </c>
       <c r="H30">
-        <v>2.682596498661843</v>
+        <v>0.838933144822554</v>
       </c>
       <c r="I30">
-        <v>218.2623226652869</v>
+        <v>68.2575619707263</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>120.2063994066397</v>
+        <v>37.59235976499366</v>
       </c>
       <c r="C31">
-        <v>4.257642025474889</v>
+        <v>1.331499916495855</v>
       </c>
       <c r="D31">
-        <v>23.37396770043123</v>
+        <v>7.309782235116317</v>
       </c>
       <c r="E31">
-        <v>33.26666024813569</v>
+        <v>10.40354146202513</v>
       </c>
       <c r="F31">
-        <v>14.69706033715383</v>
+        <v>4.596237657972704</v>
       </c>
       <c r="G31">
-        <v>9.140202893515649</v>
+        <v>2.858431807242844</v>
       </c>
       <c r="H31">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I31">
-        <v>205.3890320277947</v>
+        <v>64.23167503465025</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>90.57391346169351</v>
+        <v>28.32534005662356</v>
       </c>
       <c r="C32">
-        <v>2.254045778192588</v>
+        <v>0.7049117204978058</v>
       </c>
       <c r="D32">
-        <v>15.99271474240032</v>
+        <v>5.001429950342744</v>
       </c>
       <c r="E32">
-        <v>23.28666217369498</v>
+        <v>7.282479023417587</v>
       </c>
       <c r="F32">
-        <v>8.544802521601063</v>
+        <v>2.672231196495759</v>
       </c>
       <c r="G32">
-        <v>11.88226376157034</v>
+        <v>3.715961349415695</v>
       </c>
       <c r="H32">
-        <v>1.117748541109101</v>
+        <v>0.3495554770093975</v>
       </c>
       <c r="I32">
-        <v>153.6521509802619</v>
+        <v>48.05190877380254</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>70.50175555097302</v>
+        <v>22.04813863336981</v>
       </c>
       <c r="C33">
-        <v>4.007192494564602</v>
+        <v>1.253176391996099</v>
       </c>
       <c r="D33">
-        <v>16.81285395995931</v>
+        <v>5.257913537539809</v>
       </c>
       <c r="E33">
-        <v>30.35582747642382</v>
+        <v>9.493231584097931</v>
       </c>
       <c r="F33">
-        <v>7.405495518720919</v>
+        <v>2.315933703629657</v>
       </c>
       <c r="G33">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="H33">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="I33">
-        <v>136.6089262954439</v>
+        <v>42.72195099227108</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>56.72763364384203</v>
+        <v>17.74053314201737</v>
       </c>
       <c r="C34">
-        <v>2.754944840013164</v>
+        <v>0.8615587694973182</v>
       </c>
       <c r="D34">
-        <v>13.53229708972335</v>
+        <v>4.231979188751553</v>
       </c>
       <c r="E34">
-        <v>19.54416289577972</v>
+        <v>6.112080608939763</v>
       </c>
       <c r="F34">
-        <v>4.215435910656525</v>
+        <v>1.318300723604575</v>
       </c>
       <c r="G34">
-        <v>6.398142025460952</v>
+        <v>2.000902265069989</v>
       </c>
       <c r="H34">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I34">
-        <v>103.6197158219194</v>
+        <v>32.40517688868432</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>40.37086387912404</v>
+        <v>12.62525162103632</v>
       </c>
       <c r="C35">
-        <v>3.756742963654315</v>
+        <v>1.174852867496343</v>
       </c>
       <c r="D35">
-        <v>10.25174021948738</v>
+        <v>3.206044839963298</v>
       </c>
       <c r="E35">
-        <v>11.64333108684749</v>
+        <v>3.641239511708794</v>
       </c>
       <c r="F35">
-        <v>3.645782409216454</v>
+        <v>1.140151977171524</v>
       </c>
       <c r="G35">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="H35">
-        <v>0.6706491246654608</v>
+        <v>0.2097332862056385</v>
       </c>
       <c r="I35">
-        <v>77.19426185313188</v>
+        <v>24.14109795901404</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>24.10471333747921</v>
+        <v>7.5383096098668</v>
       </c>
       <c r="C36">
-        <v>4.883765852750609</v>
+        <v>1.527308727745246</v>
       </c>
       <c r="D36">
-        <v>3.690626479015458</v>
+        <v>1.154176142386787</v>
       </c>
       <c r="E36">
-        <v>7.069165302728834</v>
+        <v>2.210752560680339</v>
       </c>
       <c r="F36">
-        <v>3.417921008640425</v>
+        <v>1.068892478598303</v>
       </c>
       <c r="G36">
-        <v>5.027111591433607</v>
+        <v>1.572137493983563</v>
       </c>
       <c r="H36">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I36">
-        <v>48.41685328026997</v>
+        <v>15.14148810866292</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>19.30189451459803</v>
+        <v>6.036315589855744</v>
       </c>
       <c r="C37">
-        <v>3.63151819819917</v>
+        <v>1.135691105246465</v>
       </c>
       <c r="D37">
-        <v>3.280556870235962</v>
+        <v>1.025934348788256</v>
       </c>
       <c r="E37">
-        <v>4.574165784118656</v>
+        <v>1.430486951028455</v>
       </c>
       <c r="F37">
-        <v>3.190059608064396</v>
+        <v>0.9976329800250833</v>
       </c>
       <c r="G37">
-        <v>5.941131880785172</v>
+        <v>1.857980674707848</v>
       </c>
       <c r="H37">
-        <v>1.117748541109101</v>
+        <v>0.3495554770093975</v>
       </c>
       <c r="I37">
-        <v>41.03707539711048</v>
+        <v>12.83359712666125</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>10.14935298420177</v>
+        <v>3.174025098891284</v>
       </c>
       <c r="C38">
-        <v>4.257642025474889</v>
+        <v>1.331499916495855</v>
       </c>
       <c r="D38">
-        <v>2.460417652676971</v>
+        <v>0.7694507615911914</v>
       </c>
       <c r="E38">
-        <v>0.8316665062033922</v>
+        <v>0.2600885365506281</v>
       </c>
       <c r="F38">
-        <v>2.962198207488368</v>
+        <v>0.926373481451863</v>
       </c>
       <c r="G38">
-        <v>10.05422318286721</v>
+        <v>3.144274987967126</v>
       </c>
       <c r="H38">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I38">
-        <v>30.93905026713442</v>
+        <v>9.675623878349827</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>6.705822507419031</v>
+        <v>2.09712372605317</v>
       </c>
       <c r="C39">
-        <v>2.379270543647732</v>
+        <v>0.7440734827476839</v>
       </c>
       <c r="D39">
-        <v>2.460417652676971</v>
+        <v>0.7694507615911914</v>
       </c>
       <c r="E39">
-        <v>0.8316665062033922</v>
+        <v>0.2600885365506281</v>
       </c>
       <c r="F39">
-        <v>1.822891204608227</v>
+        <v>0.5700759885857618</v>
       </c>
       <c r="G39">
-        <v>6.855152170136737</v>
+        <v>2.143823855432132</v>
       </c>
       <c r="H39">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I39">
-        <v>21.27877029291392</v>
+        <v>6.654547446362447</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>6.705822507419031</v>
+        <v>2.09712372605317</v>
       </c>
       <c r="C40">
-        <v>1.502697185461725</v>
+        <v>0.4699411469985373</v>
       </c>
       <c r="D40">
-        <v>2.870487261456466</v>
+        <v>0.8976925551897235</v>
       </c>
       <c r="E40">
-        <v>2.494999518610177</v>
+        <v>0.7802656096518843</v>
       </c>
       <c r="F40">
-        <v>3.076128907776382</v>
+        <v>0.9620032307384729</v>
       </c>
       <c r="G40">
-        <v>10.96824347221878</v>
+        <v>3.430118168691411</v>
       </c>
       <c r="H40">
-        <v>0.2235497082218203</v>
+        <v>0.06991109540187952</v>
       </c>
       <c r="I40">
-        <v>27.84192856116438</v>
+        <v>8.707055532725079</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>15.45057753398573</v>
+        <v>4.831886422865749</v>
       </c>
       <c r="C41">
-        <v>1.252247654551438</v>
+        <v>0.3916176224987811</v>
       </c>
       <c r="D41">
-        <v>6.971183349251419</v>
+        <v>2.180110491175042</v>
       </c>
       <c r="E41">
-        <v>2.494999518610177</v>
+        <v>0.7802656096518843</v>
       </c>
       <c r="F41">
-        <v>4.785089412096595</v>
+        <v>1.496449470037624</v>
       </c>
       <c r="G41">
-        <v>21.022466655086</v>
+        <v>6.574393156658537</v>
       </c>
       <c r="H41">
-        <v>0.4470994164436405</v>
+        <v>0.139822190803759</v>
       </c>
       <c r="I41">
-        <v>52.423663540025</v>
+        <v>16.39454496369138</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>32.80415875250931</v>
+        <v>10.25890255177361</v>
       </c>
       <c r="C42">
-        <v>0.3756742963654314</v>
+        <v>0.1174852867496343</v>
       </c>
       <c r="D42">
-        <v>9.431601001928392</v>
+        <v>2.949561252766232</v>
       </c>
       <c r="E42">
-        <v>16.63333012406785</v>
+        <v>5.201770731012563</v>
       </c>
       <c r="F42">
-        <v>9.57017882419319</v>
+        <v>2.992898940075249</v>
       </c>
       <c r="G42">
-        <v>23.30751737846491</v>
+        <v>7.289001108469245</v>
       </c>
       <c r="H42">
-        <v>0.8941988328872811</v>
+        <v>0.2796443816075181</v>
       </c>
       <c r="I42">
-        <v>93.01665921041636</v>
+        <v>29.08926425245406</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>60.76018907060081</v>
+        <v>19.00164132863043</v>
       </c>
       <c r="C43">
-        <v>1.753146716372014</v>
+        <v>0.5482646714982933</v>
       </c>
       <c r="D43">
-        <v>22.96389809165173</v>
+        <v>7.181540441517788</v>
       </c>
       <c r="E43">
-        <v>39.91999229776283</v>
+        <v>12.48424975443015</v>
       </c>
       <c r="F43">
-        <v>20.73538745241857</v>
+        <v>6.484614370163039</v>
       </c>
       <c r="G43">
-        <v>32.44772027198056</v>
+        <v>10.14743291571209</v>
       </c>
       <c r="H43">
-        <v>3.129695915105484</v>
+        <v>0.9787553356263129</v>
       </c>
       <c r="I43">
-        <v>181.710029815892</v>
+        <v>56.82649881757811</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>102.762198965043</v>
+        <v>32.13700412627425</v>
       </c>
       <c r="C44">
-        <v>1.502697185461725</v>
+        <v>0.4699411469985373</v>
       </c>
       <c r="D44">
-        <v>26.65452457066718</v>
+        <v>8.335716583904572</v>
       </c>
       <c r="E44">
-        <v>46.57332434738996</v>
+        <v>14.56495804683517</v>
       </c>
       <c r="F44">
-        <v>22.10255585587474</v>
+        <v>6.912171361602361</v>
       </c>
       <c r="G44">
-        <v>44.78699417822669</v>
+        <v>14.00631585548992</v>
       </c>
       <c r="H44">
-        <v>4.694543872658226</v>
+        <v>1.468133003439469</v>
       </c>
       <c r="I44">
-        <v>249.0768389753215</v>
+        <v>77.8942401245443</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>116.2191535914177</v>
+        <v>36.34542133328636</v>
       </c>
       <c r="C45">
-        <v>4.382866790930033</v>
+        <v>1.370661678745734</v>
       </c>
       <c r="D45">
-        <v>32.39549909358013</v>
+        <v>10.13110169428402</v>
       </c>
       <c r="E45">
-        <v>33.26666024813569</v>
+        <v>10.40354146202513</v>
       </c>
       <c r="F45">
-        <v>24.95082336307511</v>
+        <v>7.802915093767615</v>
       </c>
       <c r="G45">
-        <v>48.90008548030875</v>
+        <v>15.29261016874921</v>
       </c>
       <c r="H45">
-        <v>3.800345039770944</v>
+        <v>1.188488621831952</v>
       </c>
       <c r="I45">
-        <v>263.9154336072183</v>
+        <v>82.53474005269001</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>93.06594209620739</v>
+        <v>29.10467657644061</v>
       </c>
       <c r="C46">
-        <v>5.384664914571183</v>
+        <v>1.683955776744758</v>
       </c>
       <c r="D46">
-        <v>37.72640400771357</v>
+        <v>11.79824501106493</v>
       </c>
       <c r="E46">
-        <v>23.28666217369498</v>
+        <v>7.282479023417587</v>
       </c>
       <c r="F46">
-        <v>30.19163557632375</v>
+        <v>9.441883560951677</v>
       </c>
       <c r="G46">
-        <v>74.49265358215258</v>
+        <v>23.29621922902917</v>
       </c>
       <c r="H46">
-        <v>3.800345039770944</v>
+        <v>1.188488621831952</v>
       </c>
       <c r="I46">
-        <v>267.9483073904344</v>
+        <v>83.79594779948067</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>70.27520749328995</v>
+        <v>21.97728985884099</v>
       </c>
       <c r="C47">
-        <v>6.010788741846902</v>
+        <v>1.879764587994149</v>
       </c>
       <c r="D47">
-        <v>27.88473339700568</v>
+        <v>8.72044196470017</v>
       </c>
       <c r="E47">
-        <v>15.38583036476276</v>
+        <v>4.811637926186622</v>
       </c>
       <c r="F47">
-        <v>32.24238818150801</v>
+        <v>10.08321904811066</v>
       </c>
       <c r="G47">
-        <v>56.66925793979704</v>
+        <v>17.72227720490562</v>
       </c>
       <c r="H47">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="I47">
-        <v>211.374352325094</v>
+        <v>66.10347483096264</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>72.49537845858416</v>
+        <v>22.67160784922345</v>
       </c>
       <c r="C48">
-        <v>3.63151819819917</v>
+        <v>1.135691105246465</v>
       </c>
       <c r="D48">
-        <v>30.34515104968265</v>
+        <v>9.489892726291357</v>
       </c>
       <c r="E48">
-        <v>17.04916337716954</v>
+        <v>5.33181499928788</v>
       </c>
       <c r="F48">
-        <v>32.92597238323609</v>
+        <v>10.29699754383032</v>
       </c>
       <c r="G48">
-        <v>81.34780575228928</v>
+        <v>25.44004308446129</v>
       </c>
       <c r="H48">
-        <v>2.459046790440023</v>
+        <v>0.7690220494206744</v>
       </c>
       <c r="I48">
-        <v>240.2540360096009</v>
+        <v>75.13506935776144</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>74.80616864695149</v>
+        <v>23.39426534941746</v>
       </c>
       <c r="C49">
-        <v>5.134215383660896</v>
+        <v>1.605632252245002</v>
       </c>
       <c r="D49">
-        <v>23.37396770043123</v>
+        <v>7.309782235116317</v>
       </c>
       <c r="E49">
-        <v>18.29666313647462</v>
+        <v>5.721947804113821</v>
       </c>
       <c r="F49">
-        <v>20.96324885299461</v>
+        <v>6.555873868736262</v>
       </c>
       <c r="G49">
-        <v>49.35709562498452</v>
+        <v>15.43553175911135</v>
       </c>
       <c r="H49">
-        <v>2.906146206883663</v>
+        <v>0.9088442402244336</v>
       </c>
       <c r="I49">
-        <v>194.837505552381</v>
+        <v>60.93187750896464</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>24.93876863414581</v>
+        <v>79.74491630444248</v>
       </c>
       <c r="C2">
-        <v>1.879764587994149</v>
+        <v>6.010788741846902</v>
       </c>
       <c r="D2">
-        <v>8.976925551897232</v>
+        <v>28.70487261456467</v>
       </c>
       <c r="E2">
-        <v>4.031372316534736</v>
+        <v>12.89083084615258</v>
       </c>
       <c r="F2">
-        <v>8.230472085206936</v>
+        <v>26.31799176653127</v>
       </c>
       <c r="G2">
-        <v>13.86339426512779</v>
+        <v>44.32998403355089</v>
       </c>
       <c r="H2">
-        <v>1.188488621831952</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="I2">
-        <v>63.10918606273859</v>
+        <v>201.7997293468597</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>24.6553735360305</v>
+        <v>78.83872407371024</v>
       </c>
       <c r="C3">
-        <v>1.997249874743783</v>
+        <v>6.386463038212333</v>
       </c>
       <c r="D3">
-        <v>10.25934348788256</v>
+        <v>32.80556870235962</v>
       </c>
       <c r="E3">
-        <v>3.901328048259423</v>
+        <v>12.47499759305088</v>
       </c>
       <c r="F3">
-        <v>8.301731583780155</v>
+        <v>26.5458531671073</v>
       </c>
       <c r="G3">
-        <v>15.5784533494735</v>
+        <v>49.81410576966029</v>
       </c>
       <c r="H3">
-        <v>1.258399717233831</v>
+        <v>4.023894747992765</v>
       </c>
       <c r="I3">
-        <v>65.95187959740373</v>
+        <v>210.8896070920934</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>27.87190789963909</v>
+        <v>89.12400589252188</v>
       </c>
       <c r="C4">
-        <v>2.036411636993661</v>
+        <v>6.511687803667479</v>
       </c>
       <c r="D4">
-        <v>11.15703604307228</v>
+        <v>35.67605596381608</v>
       </c>
       <c r="E4">
-        <v>4.551549389635993</v>
+        <v>14.55416385855936</v>
       </c>
       <c r="F4">
-        <v>9.798181053817778</v>
+        <v>31.33094257920389</v>
       </c>
       <c r="G4">
-        <v>11.8624920000578</v>
+        <v>37.93184200808994</v>
       </c>
       <c r="H4">
-        <v>0.699110954018795</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="I4">
-        <v>67.9766889772354</v>
+        <v>217.3641951880768</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>30.08238966493839</v>
+        <v>96.19230529223373</v>
       </c>
       <c r="C5">
-        <v>1.292338154245977</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="D5">
-        <v>11.41351963026934</v>
+        <v>36.49619518137508</v>
       </c>
       <c r="E5">
-        <v>4.811637926186622</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="F5">
-        <v>8.515510079499816</v>
+        <v>27.22943736883538</v>
       </c>
       <c r="G5">
-        <v>8.003609060279958</v>
+        <v>25.59256810184381</v>
       </c>
       <c r="H5">
-        <v>0.4893776678131564</v>
+        <v>1.564847957552742</v>
       </c>
       <c r="I5">
-        <v>64.60838218323326</v>
+        <v>206.5936015266233</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>36.52962814706128</v>
+        <v>116.8081785413937</v>
       </c>
       <c r="C6">
-        <v>1.918926350244027</v>
+        <v>6.136013507302046</v>
       </c>
       <c r="D6">
-        <v>8.07923299670751</v>
+        <v>25.8343853531082</v>
       </c>
       <c r="E6">
-        <v>8.97305451099667</v>
+        <v>28.69249446401702</v>
       </c>
       <c r="F6">
-        <v>6.092687128010329</v>
+        <v>19.48214974925042</v>
       </c>
       <c r="G6">
-        <v>4.430569301226404</v>
+        <v>14.16731448494926</v>
       </c>
       <c r="H6">
-        <v>1.468133003439469</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="I6">
-        <v>67.49223143768569</v>
+        <v>215.8150799726788</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>36.47294912743823</v>
+        <v>116.6269400952471</v>
       </c>
       <c r="C7">
-        <v>1.057367580746709</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="D7">
-        <v>5.770880711933936</v>
+        <v>18.45313239507728</v>
       </c>
       <c r="E7">
-        <v>9.883364388923869</v>
+        <v>31.6033272357289</v>
       </c>
       <c r="F7">
-        <v>3.491715430087791</v>
+        <v>11.16520862822539</v>
       </c>
       <c r="G7">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="H7">
-        <v>0.838933144822554</v>
+        <v>2.682596498661843</v>
       </c>
       <c r="I7">
-        <v>59.65903423938523</v>
+        <v>190.7674256903661</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>25.47721932056487</v>
+        <v>81.46668154283388</v>
       </c>
       <c r="C8">
-        <v>1.096529342996587</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="D8">
-        <v>5.001429950342744</v>
+        <v>15.99271474240032</v>
       </c>
       <c r="E8">
-        <v>6.372169145490392</v>
+        <v>20.37582940198311</v>
       </c>
       <c r="F8">
-        <v>2.672231196495759</v>
+        <v>8.544802521601063</v>
       </c>
       <c r="G8">
-        <v>2.572588626518558</v>
+        <v>8.226182604164087</v>
       </c>
       <c r="H8">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I8">
-        <v>43.26207867781078</v>
+        <v>138.3360539539483</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>20.80120020166252</v>
+        <v>66.51450973575092</v>
       </c>
       <c r="C9">
-        <v>0.9790440562469523</v>
+        <v>3.130619136378595</v>
       </c>
       <c r="D9">
-        <v>3.590770220758894</v>
+        <v>11.48194904582587</v>
       </c>
       <c r="E9">
-        <v>9.493231584097931</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="F9">
-        <v>1.532079219324235</v>
+        <v>4.899020112384608</v>
       </c>
       <c r="G9">
-        <v>1.429215903621422</v>
+        <v>4.570101446757825</v>
       </c>
       <c r="H9">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I9">
-        <v>38.03527447191759</v>
+        <v>121.6226760781871</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>15.38835382766042</v>
+        <v>49.20623812876398</v>
       </c>
       <c r="C10">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D10">
-        <v>2.821319459167702</v>
+        <v>9.021531393148898</v>
       </c>
       <c r="E10">
-        <v>6.242124877215074</v>
+        <v>19.95999614888142</v>
       </c>
       <c r="F10">
-        <v>1.389560222177795</v>
+        <v>4.443297311232553</v>
       </c>
       <c r="G10">
-        <v>1.429215903621422</v>
+        <v>4.570101446757825</v>
       </c>
       <c r="H10">
-        <v>0.2796443816075181</v>
+        <v>0.8941988328872811</v>
       </c>
       <c r="I10">
-        <v>28.25513039194774</v>
+        <v>90.34940903986454</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>11.80340583650197</v>
+        <v>37.74290641000036</v>
       </c>
       <c r="C11">
-        <v>1.135691105246465</v>
+        <v>3.63151819819917</v>
       </c>
       <c r="D11">
-        <v>2.821319459167702</v>
+        <v>9.021531393148898</v>
       </c>
       <c r="E11">
-        <v>2.86097390205691</v>
+        <v>9.148331568237312</v>
       </c>
       <c r="F11">
-        <v>1.425189971464405</v>
+        <v>4.557228011520565</v>
       </c>
       <c r="G11">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="H11">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I11">
-        <v>22.40013741607522</v>
+        <v>71.62731687590849</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>7.269084266657271</v>
+        <v>23.24383071828354</v>
       </c>
       <c r="C12">
-        <v>1.057367580746709</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="D12">
-        <v>0.6412089679926597</v>
+        <v>2.050348043897476</v>
       </c>
       <c r="E12">
-        <v>1.040354146202513</v>
+        <v>3.326666024813569</v>
       </c>
       <c r="F12">
-        <v>0.8551139828786426</v>
+        <v>2.73433680691234</v>
       </c>
       <c r="G12">
-        <v>2.286745445794274</v>
+        <v>7.312162314812519</v>
       </c>
       <c r="I12">
-        <v>13.14987439027207</v>
+        <v>42.04841257600832</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>4.534321569844692</v>
+        <v>14.49907569171682</v>
       </c>
       <c r="C13">
-        <v>1.292338154245977</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="D13">
-        <v>0.5129671743941278</v>
+        <v>1.640278435117981</v>
       </c>
       <c r="E13">
-        <v>0.5201770731012563</v>
+        <v>1.663333012406784</v>
       </c>
       <c r="F13">
-        <v>1.140151977171524</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="G13">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="H13">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I13">
-        <v>10.21369089959159</v>
+        <v>32.65958868683634</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>2.848120736058697</v>
+        <v>9.107231918859632</v>
       </c>
       <c r="C14">
-        <v>1.057367580746709</v>
+        <v>3.381068667288883</v>
       </c>
       <c r="D14">
-        <v>0.5129671743941278</v>
+        <v>1.640278435117981</v>
       </c>
       <c r="E14">
-        <v>0.3901328048259421</v>
+        <v>1.247499759305088</v>
       </c>
       <c r="F14">
-        <v>0.9620032307384729</v>
+        <v>3.076128907776382</v>
       </c>
       <c r="G14">
-        <v>4.573490891588548</v>
+        <v>14.62432462962504</v>
       </c>
       <c r="H14">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I14">
-        <v>10.41399351375438</v>
+        <v>33.30008202619482</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>2.111293480958935</v>
+        <v>6.751132118955645</v>
       </c>
       <c r="C15">
-        <v>0.6657499582479277</v>
+        <v>2.128821012737445</v>
       </c>
       <c r="D15">
-        <v>0.3847253807955957</v>
+        <v>1.230208826338486</v>
       </c>
       <c r="F15">
-        <v>0.6413354871589821</v>
+        <v>2.050752605184255</v>
       </c>
       <c r="G15">
-        <v>3.573039759053553</v>
+        <v>11.42525361689456</v>
       </c>
       <c r="H15">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I15">
-        <v>7.515966257018752</v>
+        <v>24.03326759655403</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>2.224651520205053</v>
+        <v>7.113609011248566</v>
       </c>
       <c r="C16">
-        <v>0.3524558602489029</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="D16">
-        <v>1.282417935985319</v>
+        <v>4.100696087794953</v>
       </c>
       <c r="E16">
-        <v>0.6502213413765704</v>
+        <v>2.079166265508481</v>
       </c>
       <c r="F16">
-        <v>0.7482247350188121</v>
+        <v>2.392544706048298</v>
       </c>
       <c r="G16">
-        <v>4.144726120502122</v>
+        <v>13.25329419559769</v>
       </c>
       <c r="H16">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I16">
-        <v>9.472608608738659</v>
+        <v>30.2898828635161</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>5.086942011169514</v>
+        <v>16.26615054164481</v>
       </c>
       <c r="C17">
-        <v>0.3524558602489029</v>
+        <v>1.127022889096294</v>
       </c>
       <c r="D17">
-        <v>1.282417935985319</v>
+        <v>4.100696087794953</v>
       </c>
       <c r="E17">
-        <v>0.3901328048259421</v>
+        <v>1.247499759305088</v>
       </c>
       <c r="F17">
-        <v>1.353930472891185</v>
+        <v>4.329366610944539</v>
       </c>
       <c r="G17">
-        <v>5.573942024123544</v>
+        <v>17.82339564235552</v>
       </c>
       <c r="H17">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I17">
-        <v>14.17964330004817</v>
+        <v>45.34123094758484</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>10.85403225781573</v>
+        <v>34.70716243704715</v>
       </c>
       <c r="C18">
-        <v>0.5874264337481715</v>
+        <v>1.878371481827158</v>
       </c>
       <c r="D18">
-        <v>2.693077665569171</v>
+        <v>8.611461784369403</v>
       </c>
       <c r="E18">
-        <v>4.421505121360679</v>
+        <v>14.13833060545767</v>
       </c>
       <c r="F18">
-        <v>3.135417937221689</v>
+        <v>10.02590162534525</v>
       </c>
       <c r="G18">
-        <v>7.289001108469245</v>
+        <v>23.30751737846491</v>
       </c>
       <c r="H18">
-        <v>0.419466572411277</v>
+        <v>1.341298249330922</v>
       </c>
       <c r="I18">
-        <v>29.39992709659596</v>
+        <v>94.01004356184245</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>18.93079255410158</v>
+        <v>60.53364101291772</v>
       </c>
       <c r="C19">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D19">
-        <v>7.053298647919255</v>
+        <v>22.55382848287225</v>
       </c>
       <c r="E19">
-        <v>12.09411694960421</v>
+        <v>38.67249253845776</v>
       </c>
       <c r="F19">
-        <v>5.772019384430838</v>
+        <v>18.4567734466583</v>
       </c>
       <c r="G19">
-        <v>10.29035450607423</v>
+        <v>32.90473041665635</v>
       </c>
       <c r="H19">
-        <v>0.699110954018795</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="I19">
-        <v>55.54460471664671</v>
+        <v>177.6110087579732</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>32.2361924106146</v>
+        <v>103.0793662457992</v>
       </c>
       <c r="C20">
-        <v>0.7832352449975621</v>
+        <v>2.504495309102876</v>
       </c>
       <c r="D20">
-        <v>8.72044196470017</v>
+        <v>27.88473339700568</v>
       </c>
       <c r="E20">
-        <v>11.83402841305358</v>
+        <v>37.84082603225434</v>
       </c>
       <c r="F20">
-        <v>6.555873868736262</v>
+        <v>20.96324885299461</v>
       </c>
       <c r="G20">
-        <v>14.14923744585207</v>
+        <v>45.24400432290248</v>
       </c>
       <c r="H20">
-        <v>1.39822190803759</v>
+        <v>4.470994164436404</v>
       </c>
       <c r="I20">
-        <v>75.67723125599183</v>
+        <v>241.9876683244956</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>33.97907226402366</v>
+        <v>108.6524484648029</v>
       </c>
       <c r="C21">
-        <v>1.174852867496343</v>
+        <v>3.756742963654315</v>
       </c>
       <c r="D21">
-        <v>6.925056854320723</v>
+        <v>22.14375887409274</v>
       </c>
       <c r="E21">
-        <v>8.192788901344789</v>
+        <v>26.19749494540685</v>
       </c>
       <c r="F21">
-        <v>5.665130136571007</v>
+        <v>18.11498134579425</v>
       </c>
       <c r="G21">
-        <v>11.57664881933351</v>
+        <v>37.01782171873838</v>
       </c>
       <c r="H21">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I21">
-        <v>68.49230517871635</v>
+        <v>219.0129442275949</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>27.33345721322004</v>
+        <v>87.40224065413048</v>
       </c>
       <c r="C22">
-        <v>1.683955776744758</v>
+        <v>5.384664914571183</v>
       </c>
       <c r="D22">
-        <v>12.054728598262</v>
+        <v>38.54654322527257</v>
       </c>
       <c r="E22">
-        <v>6.372169145490392</v>
+        <v>20.37582940198311</v>
       </c>
       <c r="F22">
-        <v>9.5131430595249</v>
+        <v>30.41949697689978</v>
       </c>
       <c r="G22">
-        <v>20.43778742178632</v>
+        <v>65.35245068863688</v>
       </c>
       <c r="H22">
-        <v>1.188488621831952</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="I22">
-        <v>78.58372983686036</v>
+        <v>251.281570901265</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>21.46717868223347</v>
+        <v>68.6440614779718</v>
       </c>
       <c r="C23">
-        <v>1.683955776744758</v>
+        <v>5.384664914571183</v>
       </c>
       <c r="D23">
-        <v>9.746376313488424</v>
+        <v>31.16529026724164</v>
       </c>
       <c r="E23">
-        <v>3.901328048259423</v>
+        <v>12.47499759305088</v>
       </c>
       <c r="F23">
-        <v>9.370624062378457</v>
+        <v>29.96377417574773</v>
       </c>
       <c r="G23">
-        <v>19.86610106033775</v>
+        <v>63.52441010993378</v>
       </c>
       <c r="H23">
-        <v>0.699110954018795</v>
+        <v>2.235497082218202</v>
       </c>
       <c r="I23">
-        <v>66.73467489746108</v>
+        <v>213.3926956207352</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>24.38614819282099</v>
+        <v>77.97784145451452</v>
       </c>
       <c r="C24">
-        <v>1.723117538994636</v>
+        <v>5.509889680026329</v>
       </c>
       <c r="D24">
-        <v>10.13110169428402</v>
+        <v>32.39549909358013</v>
       </c>
       <c r="E24">
-        <v>5.982036340664449</v>
+        <v>19.12832964267803</v>
       </c>
       <c r="F24">
-        <v>9.72692155524456</v>
+        <v>31.10308117862786</v>
       </c>
       <c r="G24">
-        <v>17.57935561454348</v>
+        <v>56.21224779512124</v>
       </c>
       <c r="H24">
-        <v>1.468133003439469</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="I24">
-        <v>70.99681393999161</v>
+        <v>227.0214327172063</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>23.39426534941746</v>
+        <v>74.80616864695149</v>
       </c>
       <c r="C25">
-        <v>1.605632252245002</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="D25">
-        <v>7.309782235116317</v>
+        <v>23.37396770043123</v>
       </c>
       <c r="E25">
-        <v>5.721947804113821</v>
+        <v>18.29666313647462</v>
       </c>
       <c r="F25">
-        <v>6.555873868736262</v>
+        <v>20.96324885299461</v>
       </c>
       <c r="G25">
-        <v>15.43553175911135</v>
+        <v>49.35709562498452</v>
       </c>
       <c r="H25">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I25">
-        <v>60.93187750896464</v>
+        <v>194.837505552381</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>23.5359628984751</v>
+        <v>75.2592647623176</v>
       </c>
       <c r="C26">
-        <v>1.409823440995612</v>
+        <v>4.508091556385176</v>
       </c>
       <c r="D26">
-        <v>6.925056854320723</v>
+        <v>22.14375887409274</v>
       </c>
       <c r="E26">
-        <v>4.031372316534736</v>
+        <v>12.89083084615258</v>
       </c>
       <c r="F26">
-        <v>8.337361333066767</v>
+        <v>26.65978386739531</v>
       </c>
       <c r="G26">
-        <v>16.15013971092206</v>
+        <v>51.64214634836342</v>
       </c>
       <c r="H26">
-        <v>1.468133003439469</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="I26">
-        <v>61.85784955775447</v>
+        <v>197.798420127365</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>25.37803103622451</v>
+        <v>81.1495142620776</v>
       </c>
       <c r="C27">
-        <v>1.527308727745246</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="D27">
-        <v>11.02879424947374</v>
+        <v>35.2659863550366</v>
       </c>
       <c r="E27">
-        <v>5.851992072389135</v>
+        <v>18.71249638957633</v>
       </c>
       <c r="F27">
-        <v>8.052323338773885</v>
+        <v>25.7483382650912</v>
       </c>
       <c r="G27">
-        <v>12.5770999518685</v>
+        <v>40.21689273146885</v>
       </c>
       <c r="H27">
-        <v>1.048666431028193</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="I27">
-        <v>65.46421580750322</v>
+        <v>209.3302394793285</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>26.07234902660696</v>
+        <v>83.36968522737172</v>
       </c>
       <c r="C28">
-        <v>1.331499916495855</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="D28">
-        <v>11.41351963026934</v>
+        <v>36.49619518137508</v>
       </c>
       <c r="E28">
-        <v>4.681593657911308</v>
+        <v>14.96999711166106</v>
       </c>
       <c r="F28">
-        <v>7.874174592340836</v>
+        <v>25.17868476365113</v>
       </c>
       <c r="G28">
-        <v>14.86384539766278</v>
+        <v>47.52905504628138</v>
       </c>
       <c r="H28">
-        <v>1.048666431028193</v>
+        <v>3.353245623327304</v>
       </c>
       <c r="I28">
-        <v>67.28564865231527</v>
+        <v>215.1545049791425</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>30.09655941984413</v>
+        <v>96.23761490377042</v>
       </c>
       <c r="C29">
-        <v>1.292338154245977</v>
+        <v>4.132417260019746</v>
       </c>
       <c r="D29">
-        <v>8.592200171101636</v>
+        <v>27.47466378822618</v>
       </c>
       <c r="E29">
-        <v>6.372169145490392</v>
+        <v>20.37582940198311</v>
       </c>
       <c r="F29">
-        <v>7.375358102328293</v>
+        <v>23.58365495961893</v>
       </c>
       <c r="G29">
-        <v>10.14743291571209</v>
+        <v>32.44772027198056</v>
       </c>
       <c r="H29">
-        <v>1.328310812635711</v>
+        <v>4.247444456214585</v>
       </c>
       <c r="I29">
-        <v>65.20436872135824</v>
+        <v>208.4993450418135</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>35.97700770573648</v>
+        <v>115.0411036914656</v>
       </c>
       <c r="C30">
-        <v>1.096529342996587</v>
+        <v>3.506293432744027</v>
       </c>
       <c r="D30">
-        <v>8.848683758298701</v>
+        <v>28.29480300578518</v>
       </c>
       <c r="E30">
-        <v>8.97305451099667</v>
+        <v>28.69249446401702</v>
       </c>
       <c r="F30">
-        <v>6.377725122303209</v>
+        <v>20.39359535155453</v>
       </c>
       <c r="G30">
-        <v>6.14562838557211</v>
+        <v>19.65143622105864</v>
       </c>
       <c r="H30">
-        <v>0.838933144822554</v>
+        <v>2.682596498661843</v>
       </c>
       <c r="I30">
-        <v>68.2575619707263</v>
+        <v>218.2623226652869</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>37.59235976499366</v>
+        <v>120.2063994066397</v>
       </c>
       <c r="C31">
-        <v>1.331499916495855</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="D31">
-        <v>7.309782235116317</v>
+        <v>23.37396770043123</v>
       </c>
       <c r="E31">
-        <v>10.40354146202513</v>
+        <v>33.26666024813569</v>
       </c>
       <c r="F31">
-        <v>4.596237657972704</v>
+        <v>14.69706033715383</v>
       </c>
       <c r="G31">
-        <v>2.858431807242844</v>
+        <v>9.140202893515649</v>
       </c>
       <c r="H31">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I31">
-        <v>64.23167503465025</v>
+        <v>205.3890320277947</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>28.32534005662356</v>
+        <v>90.57391346169351</v>
       </c>
       <c r="C32">
-        <v>0.7049117204978058</v>
+        <v>2.254045778192588</v>
       </c>
       <c r="D32">
-        <v>5.001429950342744</v>
+        <v>15.99271474240032</v>
       </c>
       <c r="E32">
-        <v>7.282479023417587</v>
+        <v>23.28666217369498</v>
       </c>
       <c r="F32">
-        <v>2.672231196495759</v>
+        <v>8.544802521601063</v>
       </c>
       <c r="G32">
-        <v>3.715961349415695</v>
+        <v>11.88226376157034</v>
       </c>
       <c r="H32">
-        <v>0.3495554770093975</v>
+        <v>1.117748541109101</v>
       </c>
       <c r="I32">
-        <v>48.05190877380254</v>
+        <v>153.6521509802619</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>22.04813863336981</v>
+        <v>70.50175555097302</v>
       </c>
       <c r="C33">
-        <v>1.253176391996099</v>
+        <v>4.007192494564602</v>
       </c>
       <c r="D33">
-        <v>5.257913537539809</v>
+        <v>16.81285395995931</v>
       </c>
       <c r="E33">
-        <v>9.493231584097931</v>
+        <v>30.35582747642382</v>
       </c>
       <c r="F33">
-        <v>2.315933703629657</v>
+        <v>7.405495518720919</v>
       </c>
       <c r="G33">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="H33">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I33">
-        <v>42.72195099227108</v>
+        <v>136.6089262954439</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>17.74053314201737</v>
+        <v>56.72763364384203</v>
       </c>
       <c r="C34">
-        <v>0.8615587694973182</v>
+        <v>2.754944840013164</v>
       </c>
       <c r="D34">
-        <v>4.231979188751553</v>
+        <v>13.53229708972335</v>
       </c>
       <c r="E34">
-        <v>6.112080608939763</v>
+        <v>19.54416289577972</v>
       </c>
       <c r="F34">
-        <v>1.318300723604575</v>
+        <v>4.215435910656525</v>
       </c>
       <c r="G34">
-        <v>2.000902265069989</v>
+        <v>6.398142025460952</v>
       </c>
       <c r="H34">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I34">
-        <v>32.40517688868432</v>
+        <v>103.6197158219194</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>12.62525162103632</v>
+        <v>40.37086387912404</v>
       </c>
       <c r="C35">
-        <v>1.174852867496343</v>
+        <v>3.756742963654315</v>
       </c>
       <c r="D35">
-        <v>3.206044839963298</v>
+        <v>10.25174021948738</v>
       </c>
       <c r="E35">
-        <v>3.641239511708794</v>
+        <v>11.64333108684749</v>
       </c>
       <c r="F35">
-        <v>1.140151977171524</v>
+        <v>3.645782409216454</v>
       </c>
       <c r="G35">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="H35">
-        <v>0.2097332862056385</v>
+        <v>0.6706491246654608</v>
       </c>
       <c r="I35">
-        <v>24.14109795901404</v>
+        <v>77.19426185313188</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>7.5383096098668</v>
+        <v>24.10471333747921</v>
       </c>
       <c r="C36">
-        <v>1.527308727745246</v>
+        <v>4.883765852750609</v>
       </c>
       <c r="D36">
-        <v>1.154176142386787</v>
+        <v>3.690626479015458</v>
       </c>
       <c r="E36">
-        <v>2.210752560680339</v>
+        <v>7.069165302728834</v>
       </c>
       <c r="F36">
-        <v>1.068892478598303</v>
+        <v>3.417921008640425</v>
       </c>
       <c r="G36">
-        <v>1.572137493983563</v>
+        <v>5.027111591433607</v>
       </c>
       <c r="H36">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I36">
-        <v>15.14148810866292</v>
+        <v>48.41685328026997</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>6.036315589855744</v>
+        <v>19.30189451459803</v>
       </c>
       <c r="C37">
-        <v>1.135691105246465</v>
+        <v>3.63151819819917</v>
       </c>
       <c r="D37">
-        <v>1.025934348788256</v>
+        <v>3.280556870235962</v>
       </c>
       <c r="E37">
-        <v>1.430486951028455</v>
+        <v>4.574165784118656</v>
       </c>
       <c r="F37">
-        <v>0.9976329800250833</v>
+        <v>3.190059608064396</v>
       </c>
       <c r="G37">
-        <v>1.857980674707848</v>
+        <v>5.941131880785172</v>
       </c>
       <c r="H37">
-        <v>0.3495554770093975</v>
+        <v>1.117748541109101</v>
       </c>
       <c r="I37">
-        <v>12.83359712666125</v>
+        <v>41.03707539711048</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>3.174025098891284</v>
+        <v>10.14935298420177</v>
       </c>
       <c r="C38">
-        <v>1.331499916495855</v>
+        <v>4.257642025474889</v>
       </c>
       <c r="D38">
-        <v>0.7694507615911914</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="E38">
-        <v>0.2600885365506281</v>
+        <v>0.8316665062033922</v>
       </c>
       <c r="F38">
-        <v>0.926373481451863</v>
+        <v>2.962198207488368</v>
       </c>
       <c r="G38">
-        <v>3.144274987967126</v>
+        <v>10.05422318286721</v>
       </c>
       <c r="H38">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I38">
-        <v>9.675623878349827</v>
+        <v>30.93905026713442</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>2.09712372605317</v>
+        <v>6.705822507419031</v>
       </c>
       <c r="C39">
-        <v>0.7440734827476839</v>
+        <v>2.379270543647732</v>
       </c>
       <c r="D39">
-        <v>0.7694507615911914</v>
+        <v>2.460417652676971</v>
       </c>
       <c r="E39">
-        <v>0.2600885365506281</v>
+        <v>0.8316665062033922</v>
       </c>
       <c r="F39">
-        <v>0.5700759885857618</v>
+        <v>1.822891204608227</v>
       </c>
       <c r="G39">
-        <v>2.143823855432132</v>
+        <v>6.855152170136737</v>
       </c>
       <c r="H39">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I39">
-        <v>6.654547446362447</v>
+        <v>21.27877029291392</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>2.09712372605317</v>
+        <v>6.705822507419031</v>
       </c>
       <c r="C40">
-        <v>0.4699411469985373</v>
+        <v>1.502697185461725</v>
       </c>
       <c r="D40">
-        <v>0.8976925551897235</v>
+        <v>2.870487261456466</v>
       </c>
       <c r="E40">
-        <v>0.7802656096518843</v>
+        <v>2.494999518610177</v>
       </c>
       <c r="F40">
-        <v>0.9620032307384729</v>
+        <v>3.076128907776382</v>
       </c>
       <c r="G40">
-        <v>3.430118168691411</v>
+        <v>10.96824347221878</v>
       </c>
       <c r="H40">
-        <v>0.06991109540187952</v>
+        <v>0.2235497082218203</v>
       </c>
       <c r="I40">
-        <v>8.707055532725079</v>
+        <v>27.84192856116438</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>4.831886422865749</v>
+        <v>15.45057753398573</v>
       </c>
       <c r="C41">
-        <v>0.3916176224987811</v>
+        <v>1.252247654551438</v>
       </c>
       <c r="D41">
-        <v>2.180110491175042</v>
+        <v>6.971183349251419</v>
       </c>
       <c r="E41">
-        <v>0.7802656096518843</v>
+        <v>2.494999518610177</v>
       </c>
       <c r="F41">
-        <v>1.496449470037624</v>
+        <v>4.785089412096595</v>
       </c>
       <c r="G41">
-        <v>6.574393156658537</v>
+        <v>21.022466655086</v>
       </c>
       <c r="H41">
-        <v>0.139822190803759</v>
+        <v>0.4470994164436405</v>
       </c>
       <c r="I41">
-        <v>16.39454496369138</v>
+        <v>52.423663540025</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>10.25890255177361</v>
+        <v>32.80415875250931</v>
       </c>
       <c r="C42">
-        <v>0.1174852867496343</v>
+        <v>0.3756742963654314</v>
       </c>
       <c r="D42">
-        <v>2.949561252766232</v>
+        <v>9.431601001928392</v>
       </c>
       <c r="E42">
-        <v>5.201770731012563</v>
+        <v>16.63333012406785</v>
       </c>
       <c r="F42">
-        <v>2.992898940075249</v>
+        <v>9.57017882419319</v>
       </c>
       <c r="G42">
-        <v>7.289001108469245</v>
+        <v>23.30751737846491</v>
       </c>
       <c r="H42">
-        <v>0.2796443816075181</v>
+        <v>0.8941988328872811</v>
       </c>
       <c r="I42">
-        <v>29.08926425245406</v>
+        <v>93.01665921041636</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>19.00164132863043</v>
+        <v>60.76018907060081</v>
       </c>
       <c r="C43">
-        <v>0.5482646714982933</v>
+        <v>1.753146716372014</v>
       </c>
       <c r="D43">
-        <v>7.181540441517788</v>
+        <v>22.96389809165173</v>
       </c>
       <c r="E43">
-        <v>12.48424975443015</v>
+        <v>39.91999229776283</v>
       </c>
       <c r="F43">
-        <v>6.484614370163039</v>
+        <v>20.73538745241857</v>
       </c>
       <c r="G43">
-        <v>10.14743291571209</v>
+        <v>32.44772027198056</v>
       </c>
       <c r="H43">
-        <v>0.9787553356263129</v>
+        <v>3.129695915105484</v>
       </c>
       <c r="I43">
-        <v>56.82649881757811</v>
+        <v>181.710029815892</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>32.13700412627425</v>
+        <v>102.762198965043</v>
       </c>
       <c r="C44">
-        <v>0.4699411469985373</v>
+        <v>1.502697185461725</v>
       </c>
       <c r="D44">
-        <v>8.335716583904572</v>
+        <v>26.65452457066718</v>
       </c>
       <c r="E44">
-        <v>14.56495804683517</v>
+        <v>46.57332434738996</v>
       </c>
       <c r="F44">
-        <v>6.912171361602361</v>
+        <v>22.10255585587474</v>
       </c>
       <c r="G44">
-        <v>14.00631585548992</v>
+        <v>44.78699417822669</v>
       </c>
       <c r="H44">
-        <v>1.468133003439469</v>
+        <v>4.694543872658226</v>
       </c>
       <c r="I44">
-        <v>77.8942401245443</v>
+        <v>249.0768389753215</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>36.34542133328636</v>
+        <v>116.2191535914177</v>
       </c>
       <c r="C45">
-        <v>1.370661678745734</v>
+        <v>4.382866790930033</v>
       </c>
       <c r="D45">
-        <v>10.13110169428402</v>
+        <v>32.39549909358013</v>
       </c>
       <c r="E45">
-        <v>10.40354146202513</v>
+        <v>33.26666024813569</v>
       </c>
       <c r="F45">
-        <v>7.802915093767615</v>
+        <v>24.95082336307511</v>
       </c>
       <c r="G45">
-        <v>15.29261016874921</v>
+        <v>48.90008548030875</v>
       </c>
       <c r="H45">
-        <v>1.188488621831952</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="I45">
-        <v>82.53474005269001</v>
+        <v>263.9154336072183</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>29.10467657644061</v>
+        <v>93.06594209620739</v>
       </c>
       <c r="C46">
-        <v>1.683955776744758</v>
+        <v>5.384664914571183</v>
       </c>
       <c r="D46">
-        <v>11.79824501106493</v>
+        <v>37.72640400771357</v>
       </c>
       <c r="E46">
-        <v>7.282479023417587</v>
+        <v>23.28666217369498</v>
       </c>
       <c r="F46">
-        <v>9.441883560951677</v>
+        <v>30.19163557632375</v>
       </c>
       <c r="G46">
-        <v>23.29621922902917</v>
+        <v>74.49265358215258</v>
       </c>
       <c r="H46">
-        <v>1.188488621831952</v>
+        <v>3.800345039770944</v>
       </c>
       <c r="I46">
-        <v>83.79594779948067</v>
+        <v>267.9483073904344</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>21.97728985884099</v>
+        <v>70.27520749328995</v>
       </c>
       <c r="C47">
-        <v>1.879764587994149</v>
+        <v>6.010788741846902</v>
       </c>
       <c r="D47">
-        <v>8.72044196470017</v>
+        <v>27.88473339700568</v>
       </c>
       <c r="E47">
-        <v>4.811637926186622</v>
+        <v>15.38583036476276</v>
       </c>
       <c r="F47">
-        <v>10.08321904811066</v>
+        <v>32.24238818150801</v>
       </c>
       <c r="G47">
-        <v>17.72227720490562</v>
+        <v>56.66925793979704</v>
       </c>
       <c r="H47">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I47">
-        <v>66.10347483096264</v>
+        <v>211.374352325094</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>22.67160784922345</v>
+        <v>72.49537845858416</v>
       </c>
       <c r="C48">
-        <v>1.135691105246465</v>
+        <v>3.63151819819917</v>
       </c>
       <c r="D48">
-        <v>9.489892726291357</v>
+        <v>30.34515104968265</v>
       </c>
       <c r="E48">
-        <v>5.33181499928788</v>
+        <v>17.04916337716954</v>
       </c>
       <c r="F48">
-        <v>10.29699754383032</v>
+        <v>32.92597238323609</v>
       </c>
       <c r="G48">
-        <v>25.44004308446129</v>
+        <v>81.34780575228928</v>
       </c>
       <c r="H48">
-        <v>0.7690220494206744</v>
+        <v>2.459046790440023</v>
       </c>
       <c r="I48">
-        <v>75.13506935776144</v>
+        <v>240.2540360096009</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>23.39426534941746</v>
+        <v>74.80616864695149</v>
       </c>
       <c r="C49">
-        <v>1.605632252245002</v>
+        <v>5.134215383660896</v>
       </c>
       <c r="D49">
-        <v>7.309782235116317</v>
+        <v>23.37396770043123</v>
       </c>
       <c r="E49">
-        <v>5.721947804113821</v>
+        <v>18.29666313647462</v>
       </c>
       <c r="F49">
-        <v>6.555873868736262</v>
+        <v>20.96324885299461</v>
       </c>
       <c r="G49">
-        <v>15.43553175911135</v>
+        <v>49.35709562498452</v>
       </c>
       <c r="H49">
-        <v>0.9088442402244336</v>
+        <v>2.906146206883663</v>
       </c>
       <c r="I49">
-        <v>60.93187750896464</v>
+        <v>194.837505552381</v>
       </c>
     </row>
   </sheetData>
